--- a/team_specific_matrix/Brown_A.xlsx
+++ b/team_specific_matrix/Brown_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2413793103448276</v>
+        <v>0.2192307692307692</v>
       </c>
       <c r="C2">
-        <v>0.4770114942528735</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01724137931034483</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1436781609195402</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1206896551724138</v>
+        <v>0.1269230769230769</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0119047619047619</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02380952380952381</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6785714285714286</v>
+        <v>0.6742424242424242</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2857142857142857</v>
+        <v>0.2575757575757576</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04761904761904762</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6190476190476191</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07194244604316546</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07194244604316546</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.237410071942446</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01438848920863309</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.158273381294964</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="R6">
-        <v>0.09352517985611511</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="S6">
-        <v>0.3525179856115108</v>
+        <v>0.3775510204081632</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08064516129032258</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01612903225806452</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06451612903225806</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1693548387096774</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02419354838709677</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1209677419354839</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="R7">
-        <v>0.07258064516129033</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="S7">
-        <v>0.4516129032258064</v>
+        <v>0.4470588235294118</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09252669039145907</v>
+        <v>0.09560723514211886</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01423487544483986</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06405693950177936</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1067615658362989</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02135231316725979</v>
+        <v>0.020671834625323</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1814946619217082</v>
+        <v>0.1808785529715762</v>
       </c>
       <c r="R8">
-        <v>0.099644128113879</v>
+        <v>0.1059431524547804</v>
       </c>
       <c r="S8">
-        <v>0.4199288256227758</v>
+        <v>0.4031007751937984</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07407407407407407</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009259259259259259</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07407407407407407</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1944444444444444</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01851851851851852</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1759259259259259</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="R9">
         <v>0.08333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.3703703703703703</v>
+        <v>0.3782051282051282</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1038961038961039</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01818181818181818</v>
+        <v>0.02006980802792321</v>
       </c>
       <c r="E10">
-        <v>0.001298701298701299</v>
+        <v>0.0008726003490401396</v>
       </c>
       <c r="F10">
-        <v>0.07532467532467532</v>
+        <v>0.07504363001745201</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1298701298701299</v>
+        <v>0.1273996509598604</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01558441558441558</v>
+        <v>0.01483420593368237</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1948051948051948</v>
+        <v>0.1849912739965096</v>
       </c>
       <c r="R10">
-        <v>0.08441558441558442</v>
+        <v>0.08813263525305411</v>
       </c>
       <c r="S10">
-        <v>0.3766233766233766</v>
+        <v>0.3787085514834206</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1804123711340206</v>
+        <v>0.1691729323308271</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09793814432989691</v>
+        <v>0.08646616541353383</v>
       </c>
       <c r="K11">
-        <v>0.2319587628865979</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L11">
-        <v>0.4845360824742268</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005154639175257732</v>
+        <v>0.007518796992481203</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7474747474747475</v>
+        <v>0.6887417218543046</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1616161616161616</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="L12">
-        <v>0.0505050505050505</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04040404040404041</v>
+        <v>0.03973509933774835</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6857142857142857</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3142857142857143</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03846153846153846</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1538461538461539</v>
+        <v>0.1657458563535912</v>
       </c>
       <c r="I15">
-        <v>0.03846153846153846</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="J15">
-        <v>0.3615384615384615</v>
+        <v>0.3591160220994475</v>
       </c>
       <c r="K15">
-        <v>0.05384615384615385</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05384615384615385</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3</v>
+        <v>0.2707182320441989</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,31 +1336,31 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01063829787234043</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1595744680851064</v>
+        <v>0.1631205673758865</v>
       </c>
       <c r="I16">
         <v>0.0425531914893617</v>
       </c>
       <c r="J16">
-        <v>0.4468085106382979</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="K16">
-        <v>0.09574468085106383</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.05319148936170213</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="N16">
-        <v>0.01063829787234043</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="O16">
         <v>0.0425531914893617</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1382978723404255</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.015625</v>
+        <v>0.01420454545454545</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.16796875</v>
+        <v>0.1903409090909091</v>
       </c>
       <c r="I17">
-        <v>0.09375</v>
+        <v>0.09943181818181818</v>
       </c>
       <c r="J17">
-        <v>0.421875</v>
+        <v>0.4261363636363636</v>
       </c>
       <c r="K17">
-        <v>0.12109375</v>
+        <v>0.1051136363636364</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03515625</v>
+        <v>0.03125</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002840909090909091</v>
       </c>
       <c r="O17">
-        <v>0.046875</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09765625</v>
+        <v>0.08522727272727272</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00819672131147541</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2704918032786885</v>
+        <v>0.2596685082872928</v>
       </c>
       <c r="I18">
-        <v>0.06557377049180328</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="J18">
-        <v>0.3442622950819672</v>
+        <v>0.3867403314917127</v>
       </c>
       <c r="K18">
-        <v>0.1147540983606557</v>
+        <v>0.1049723756906077</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02459016393442623</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05737704918032787</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1147540983606557</v>
+        <v>0.09944751381215469</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01935483870967742</v>
+        <v>0.01888489208633094</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2219354838709677</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="I19">
-        <v>0.08645161290322581</v>
+        <v>0.08723021582733813</v>
       </c>
       <c r="J19">
-        <v>0.3625806451612903</v>
+        <v>0.3803956834532374</v>
       </c>
       <c r="K19">
-        <v>0.112258064516129</v>
+        <v>0.1106115107913669</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0232258064516129</v>
+        <v>0.02338129496402878</v>
       </c>
       <c r="N19">
-        <v>0.001290322580645161</v>
+        <v>0.0008992805755395684</v>
       </c>
       <c r="O19">
-        <v>0.06838709677419355</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1045161290322581</v>
+        <v>0.1052158273381295</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Brown_A.xlsx
+++ b/team_specific_matrix/Brown_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2192307692307692</v>
+        <v>0.2184300341296928</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.4948805460750853</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01923076923076923</v>
+        <v>0.01706484641638225</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1346153846153846</v>
+        <v>0.1433447098976109</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1269230769230769</v>
+        <v>0.1262798634812287</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01515151515151515</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05303030303030303</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6742424242424242</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2575757575757576</v>
+        <v>0.2585034013605442</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05405405405405406</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5135135135135135</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4324324324324325</v>
+        <v>0.4146341463414634</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08163265306122448</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00510204081632653</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06122448979591837</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2551020408163265</v>
+        <v>0.2488479262672811</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01530612244897959</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1275510204081633</v>
+        <v>0.1382488479262673</v>
       </c>
       <c r="R6">
-        <v>0.07653061224489796</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="S6">
-        <v>0.3775510204081632</v>
+        <v>0.3732718894009217</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08823529411764706</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02352941176470588</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1529411764705882</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02352941176470588</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1235294117647059</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="R7">
-        <v>0.08235294117647059</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="S7">
-        <v>0.4470588235294118</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09560723514211886</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01550387596899225</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05426356589147287</v>
+        <v>0.04895104895104895</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.124031007751938</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.020671834625323</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1808785529715762</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="R8">
-        <v>0.1059431524547804</v>
+        <v>0.1142191142191142</v>
       </c>
       <c r="S8">
-        <v>0.4031007751937984</v>
+        <v>0.4102564102564102</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07051282051282051</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01923076923076923</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07692307692307693</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1858974358974359</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01282051282051282</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1730769230769231</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="R9">
-        <v>0.08333333333333333</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="S9">
-        <v>0.3782051282051282</v>
+        <v>0.3555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1099476439790576</v>
+        <v>0.1105141980046048</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02006980802792321</v>
+        <v>0.02072141212586339</v>
       </c>
       <c r="E10">
-        <v>0.0008726003490401396</v>
+        <v>0.0007674597083653108</v>
       </c>
       <c r="F10">
-        <v>0.07504363001745201</v>
+        <v>0.07444359171143515</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1273996509598604</v>
+        <v>0.1320030698388334</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01483420593368237</v>
+        <v>0.01381427475057559</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1849912739965096</v>
+        <v>0.1849577897160399</v>
       </c>
       <c r="R10">
-        <v>0.08813263525305411</v>
+        <v>0.08902532617037605</v>
       </c>
       <c r="S10">
-        <v>0.3787085514834206</v>
+        <v>0.3737528779739064</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1691729323308271</v>
+        <v>0.1644295302013423</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08646616541353383</v>
+        <v>0.09060402684563758</v>
       </c>
       <c r="K11">
-        <v>0.2105263157894737</v>
+        <v>0.2181208053691275</v>
       </c>
       <c r="L11">
-        <v>0.5263157894736842</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007518796992481203</v>
+        <v>0.01006711409395973</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6887417218543046</v>
+        <v>0.6848484848484848</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1920529801324503</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.006622516556291391</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="L12">
-        <v>0.0728476821192053</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03973509933774835</v>
+        <v>0.04242424242424243</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6739130434782609</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3260869565217391</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04419889502762431</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1657458563535912</v>
+        <v>0.1609756097560976</v>
       </c>
       <c r="I15">
-        <v>0.03867403314917127</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="J15">
-        <v>0.3591160220994475</v>
+        <v>0.3707317073170732</v>
       </c>
       <c r="K15">
-        <v>0.07734806629834254</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04419889502762431</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2707182320441989</v>
+        <v>0.2634146341463415</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007092198581560284</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1631205673758865</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="I16">
-        <v>0.0425531914893617</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="J16">
-        <v>0.4893617021276596</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="K16">
-        <v>0.0851063829787234</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03546099290780142</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="N16">
-        <v>0.007092198581560284</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="O16">
-        <v>0.0425531914893617</v>
+        <v>0.04430379746835443</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1276595744680851</v>
+        <v>0.1265822784810127</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01420454545454545</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1903409090909091</v>
+        <v>0.1884422110552764</v>
       </c>
       <c r="I17">
-        <v>0.09943181818181818</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="J17">
-        <v>0.4261363636363636</v>
+        <v>0.4221105527638191</v>
       </c>
       <c r="K17">
-        <v>0.1051136363636364</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03125</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="N17">
-        <v>0.002840909090909091</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="O17">
-        <v>0.04545454545454546</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08522727272727272</v>
+        <v>0.08542713567839195</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01657458563535912</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2596685082872928</v>
+        <v>0.2383177570093458</v>
       </c>
       <c r="I18">
-        <v>0.06629834254143646</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="J18">
-        <v>0.3867403314917127</v>
+        <v>0.4252336448598131</v>
       </c>
       <c r="K18">
-        <v>0.1049723756906077</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01657458563535912</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04972375690607735</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09944751381215469</v>
+        <v>0.08878504672897196</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01888489208633094</v>
+        <v>0.01686746987951807</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2014388489208633</v>
+        <v>0.1975903614457831</v>
       </c>
       <c r="I19">
-        <v>0.08723021582733813</v>
+        <v>0.08995983935742972</v>
       </c>
       <c r="J19">
-        <v>0.3803956834532374</v>
+        <v>0.3823293172690763</v>
       </c>
       <c r="K19">
-        <v>0.1106115107913669</v>
+        <v>0.1068273092369478</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02338129496402878</v>
+        <v>0.02248995983935743</v>
       </c>
       <c r="N19">
-        <v>0.0008992805755395684</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="O19">
-        <v>0.07194244604316546</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1052158273381295</v>
+        <v>0.1092369477911647</v>
       </c>
     </row>
   </sheetData>
